--- a/SalesReport.xlsx
+++ b/SalesReport.xlsx
@@ -172,7 +172,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Sales per rep</c:v>
+            <c:v>=Sales per rep</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -303,13 +303,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Monthly sales</c:v>
+            <c:v>=Monthly</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Monthly!$A$2:$A$13</c:f>
+              <c:f>Monthly!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>January</c:v>
                 </c:pt>
@@ -336,25 +336,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>September</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>October</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>November</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>December</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monthly!$B$2:$B$13</c:f>
+              <c:f>Monthly!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>69990</c:v>
                 </c:pt>
@@ -381,15 +372,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>55666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50093</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57458</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>61941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
